--- a/Tables_K8.xlsx
+++ b/Tables_K8.xlsx
@@ -476,16 +476,16 @@
         <v>2.937161650698146</v>
       </c>
       <c r="C2" t="n">
-        <v>2.847112862398596</v>
+        <v>2.847112862391952</v>
       </c>
       <c r="D2" t="n">
-        <v>2.937161650698986</v>
+        <v>2.937161650698989</v>
       </c>
       <c r="E2" t="n">
-        <v>2.875001877739883</v>
+        <v>2.875001877739882</v>
       </c>
       <c r="F2" t="n">
-        <v>2.830735884057003</v>
+        <v>2.830735884057002</v>
       </c>
       <c r="G2" t="n">
         <v>0.03635402648293419</v>
@@ -501,16 +501,16 @@
         <v>1.296385787608045e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>1.259290383082146e-08</v>
+        <v>1.259290360877685e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>1.296385786497822e-07</v>
+        <v>1.296385788718268e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.879734095628805e-08</v>
+        <v>2.879734117833266e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.870650321311729e-07</v>
+        <v>1.870650322421952e-07</v>
       </c>
       <c r="G3" t="n">
         <v>1.768634128040958e-09</v>
@@ -526,16 +526,16 @@
         <v>0.3574952071282695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5138915530984492</v>
+        <v>0.5138915530972786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.357495207128373</v>
+        <v>0.3574952071283801</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4153588358148768</v>
+        <v>0.4153588358148719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6295141128270823</v>
+        <v>0.6295141128270832</v>
       </c>
       <c r="G4" t="n">
         <v>0.0055439555383201</v>
@@ -551,16 +551,16 @@
         <v>0.02056775408755891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02188016801003955</v>
+        <v>0.02188016800998858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02056775408756479</v>
+        <v>0.02056775408756485</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02093039967686551</v>
+        <v>0.02093039967686549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02189114441751368</v>
+        <v>0.02189114441751369</v>
       </c>
       <c r="G5" t="n">
         <v>0.0002704449133474388</v>
@@ -576,16 +576,16 @@
         <v>0.005352828211719313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005399832201538085</v>
+        <v>0.005399832201525456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005352828211721228</v>
+        <v>0.005352828211720895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005200705499176672</v>
+        <v>0.005200705499176977</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00534631340391617</v>
+        <v>0.005346313403916059</v>
       </c>
       <c r="G6" t="n">
         <v>6.907529693078729e-05</v>
@@ -601,16 +601,16 @@
         <v>0.0113484071929556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01031938965054363</v>
+        <v>0.01031938965051965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0113484071929586</v>
+        <v>0.01134840719295849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01057427359268015</v>
+        <v>0.01057427359268026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01021317389818338</v>
+        <v>0.01021317389818327</v>
       </c>
       <c r="G7" t="n">
         <v>0.0001342351655604368</v>
@@ -626,16 +626,16 @@
         <v>0.01927125048450312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01697016240637647</v>
+        <v>0.01697016240633706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01927125048450842</v>
+        <v>0.01927125048450845</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01825060959149905</v>
+        <v>0.01825060959149916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01682290902106262</v>
+        <v>0.01682290902106268</v>
       </c>
       <c r="G8" t="n">
         <v>0.0002241603208440468</v>
@@ -651,16 +651,16 @@
         <v>5.608751347116244</v>
       </c>
       <c r="C9" t="n">
-        <v>5.193407606779016</v>
+        <v>5.193544628935456</v>
       </c>
       <c r="D9" t="n">
-        <v>5.608748279386696</v>
+        <v>5.608751347116256</v>
       </c>
       <c r="E9" t="n">
-        <v>5.472875923390387</v>
+        <v>5.472876537620306</v>
       </c>
       <c r="F9" t="n">
-        <v>5.252211713331572</v>
+        <v>5.25221171333157</v>
       </c>
       <c r="G9" t="n">
         <v>5.094944174330786</v>
@@ -676,13 +676,13 @@
         <v>3.281015750200567e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>3.291147088191337e-08</v>
+        <v>1.537716415311863e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>3.079472962186358e-07</v>
+        <v>3.281015752421013e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>2.326836736621374e-07</v>
+        <v>2.36436797029782e-07</v>
       </c>
       <c r="F10" t="n">
         <v>1.242983739269121e-07</v>
@@ -701,16 +701,16 @@
         <v>2.960668399374082</v>
       </c>
       <c r="C11" t="n">
-        <v>1.754749074834689</v>
+        <v>1.75606725465478</v>
       </c>
       <c r="D11" t="n">
-        <v>2.960684297711963</v>
+        <v>2.96066839937424</v>
       </c>
       <c r="E11" t="n">
-        <v>3.597907723002164</v>
+        <v>3.597905614974001</v>
       </c>
       <c r="F11" t="n">
-        <v>2.486230992852728</v>
+        <v>2.486230992852732</v>
       </c>
       <c r="G11" t="n">
         <v>1.044912600368721</v>
@@ -726,13 +726,13 @@
         <v>0.04812476400308151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04437508205643743</v>
+        <v>0.04437709868533905</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04812477382469727</v>
+        <v>0.04812476400308183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04859528444272698</v>
+        <v>0.04859528293793991</v>
       </c>
       <c r="F12" t="n">
         <v>0.04563180570930257</v>
@@ -751,16 +751,16 @@
         <v>0.008676516317368599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007615235945807375</v>
+        <v>0.007615912648438611</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008676530383083941</v>
+        <v>0.008676516317368571</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008418148215599275</v>
+        <v>0.008418133269631811</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00775633864064329</v>
+        <v>0.007756338640643318</v>
       </c>
       <c r="G13" t="n">
         <v>0.007337707042114699</v>
@@ -776,16 +776,16 @@
         <v>0.0185036912883571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01660622707494974</v>
+        <v>0.01660611022678821</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01850368177840922</v>
+        <v>0.01850369128835705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01787227011636416</v>
+        <v>0.01787228251762063</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0168320131495388</v>
+        <v>0.01683201314953864</v>
       </c>
       <c r="G14" t="n">
         <v>0.01611607784406666</v>
@@ -801,16 +801,16 @@
         <v>0.03423687068397918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0314675123733949</v>
+        <v>0.03146751673439788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03423688109578829</v>
+        <v>0.03423687068397896</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03304243821518379</v>
+        <v>0.03304245277124779</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03165864582170852</v>
+        <v>0.03165864582170844</v>
       </c>
       <c r="G15" t="n">
         <v>0.03097248996598942</v>
@@ -826,16 +826,16 @@
         <v>5.012449468784932</v>
       </c>
       <c r="C16" t="n">
-        <v>4.690199918403805</v>
+        <v>2.837784055663364</v>
       </c>
       <c r="D16" t="n">
-        <v>5.012449468785391</v>
+        <v>5.012449468785388</v>
       </c>
       <c r="E16" t="n">
-        <v>5.005680317035459</v>
+        <v>5.005680317035433</v>
       </c>
       <c r="F16" t="n">
-        <v>4.681369965112951</v>
+        <v>4.681369965112953</v>
       </c>
       <c r="G16" t="n">
         <v>2.837784055663364</v>
@@ -851,10 +851,10 @@
         <v>1.231812424284939e-07</v>
       </c>
       <c r="C17" t="n">
-        <v>5.191843044372035e-08</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.231812427615608e-07</v>
+        <v>1.231812429836054e-07</v>
       </c>
       <c r="E17" t="n">
         <v>7.715173611089199e-09</v>
@@ -876,16 +876,16 @@
         <v>0.6405785638631984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9908346886699821</v>
+        <v>0.4564386066315557</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6405785638632653</v>
+        <v>0.6405785638632673</v>
       </c>
       <c r="E18" t="n">
-        <v>0.834836848644761</v>
+        <v>0.8348368486447533</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9877162721813384</v>
+        <v>0.9877162721813371</v>
       </c>
       <c r="G18" t="n">
         <v>0.4564386066315557</v>
@@ -901,13 +901,13 @@
         <v>0.04015772568896776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04112374087740764</v>
+        <v>0.03110362526607891</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0401577256889702</v>
+        <v>0.04015772568897014</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04125864806978106</v>
+        <v>0.04125864806978093</v>
       </c>
       <c r="F19" t="n">
         <v>0.04103669827841235</v>
@@ -926,16 +926,16 @@
         <v>0.006736212879049047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005264537847906758</v>
+        <v>0.0003457132836065802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006736212879049686</v>
+        <v>0.006736212879049575</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006278880969378453</v>
+        <v>0.006278880969378259</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005254081603555102</v>
+        <v>0.005254081603555172</v>
       </c>
       <c r="G20" t="n">
         <v>0.0003457132836065802</v>
@@ -951,13 +951,13 @@
         <v>0.0150961773724565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01219718284046817</v>
+        <v>0.003230806090801563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01509617737245683</v>
+        <v>0.01509617737245705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01440424034126286</v>
+        <v>0.01440424034126275</v>
       </c>
       <c r="F21" t="n">
         <v>0.01216023531469496</v>
@@ -976,16 +976,16 @@
         <v>0.03012643245387164</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02665154218168841</v>
+        <v>0.01491201298301237</v>
       </c>
       <c r="D22" t="n">
         <v>0.03012643245387692</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02950044221906656</v>
+        <v>0.02950044221906595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0265864299635542</v>
+        <v>0.02658642996355437</v>
       </c>
       <c r="G22" t="n">
         <v>0.01491201298301237</v>
@@ -1001,16 +1001,16 @@
         <v>0.7572788929676304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8635926975876774</v>
+        <v>0.8635926975861234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7572788929676826</v>
+        <v>0.757278892967687</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7646509840480544</v>
+        <v>0.7646509840480555</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8638537243825887</v>
+        <v>0.8638537243825896</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>0.2570974763753358</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4495851860624464</v>
+        <v>0.4495851860616354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2570974763753483</v>
+        <v>0.2570974763753467</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2795469551793266</v>
+        <v>0.279546955179328</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4497346904771256</v>
+        <v>0.4497346904771257</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0.02167601851118481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02736755056829936</v>
+        <v>0.02736755056824993</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02167601851118623</v>
+        <v>0.02167601851118634</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02194908981271583</v>
+        <v>0.02194908981271589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02739840569361632</v>
+        <v>0.02739840569361636</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0.005223942368427326</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006410755150301428</v>
+        <v>0.006410755150289826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00522394236842777</v>
+        <v>0.005223942368427936</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005423106969033087</v>
+        <v>0.00542310696903317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006419753176826748</v>
+        <v>0.00641975317682672</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>0.01169910348828546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01214734693929653</v>
+        <v>0.01214734693927472</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01169910348828629</v>
+        <v>0.0116991034882864</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01191978767082524</v>
+        <v>0.01191978767082535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01214883605917172</v>
+        <v>0.01214883605917183</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0.02031377645803087</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02058830472066131</v>
+        <v>0.02058830472062417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02031377645803195</v>
+        <v>0.02031377645803248</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01984240241347826</v>
+        <v>0.01984240241347832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02059088402145276</v>
+        <v>0.02059088402145268</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>1.958308055804901</v>
       </c>
       <c r="C30" t="n">
-        <v>1.885635865369753</v>
+        <v>1.852094968559945</v>
       </c>
       <c r="D30" t="n">
-        <v>1.958307985485564</v>
+        <v>1.958308055804902</v>
       </c>
       <c r="E30" t="n">
-        <v>1.871367247340279</v>
+        <v>1.871367241188691</v>
       </c>
       <c r="F30" t="n">
         <v>1.861005933408455</v>
@@ -1201,13 +1201,13 @@
         <v>6.153962683885794e-08</v>
       </c>
       <c r="C31" t="n">
-        <v>8.753223105367747e-07</v>
+        <v>4.790223018247275e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>1.309663399950978e-08</v>
+        <v>6.153962683885794e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>4.266408445419145e-07</v>
+        <v>4.245880216302567e-07</v>
       </c>
       <c r="F31" t="n">
         <v>2.008524609187212e-06</v>
@@ -1226,16 +1226,16 @@
         <v>2.713568179023488</v>
       </c>
       <c r="C32" t="n">
-        <v>2.009947636276217</v>
+        <v>1.044912600368721</v>
       </c>
       <c r="D32" t="n">
-        <v>2.713582247647579</v>
+        <v>2.713568179023402</v>
       </c>
       <c r="E32" t="n">
-        <v>1.599322028041091</v>
+        <v>1.599321506757025</v>
       </c>
       <c r="F32" t="n">
-        <v>1.125671131447144</v>
+        <v>1.125671131447142</v>
       </c>
       <c r="G32" t="n">
         <v>1.044912600368721</v>
@@ -1251,13 +1251,13 @@
         <v>0.07188031437476858</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06853517465519035</v>
+        <v>0.06559843423576975</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07188036062447846</v>
+        <v>0.07188031437476844</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06717952245369803</v>
+        <v>0.06717952114446984</v>
       </c>
       <c r="F33" t="n">
         <v>0.06633316625834632</v>
@@ -1276,13 +1276,13 @@
         <v>0.01026762364524655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00873306166127355</v>
+        <v>0.008595116555608212</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01026763469469777</v>
+        <v>0.01026762364524672</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008911419671365078</v>
+        <v>0.008911428677977118</v>
       </c>
       <c r="F34" t="n">
         <v>0.008659587048444883</v>
@@ -1301,13 +1301,13 @@
         <v>0.0241260216226461</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02191095639358842</v>
+        <v>0.02155925483323406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02412604275235475</v>
+        <v>0.02412602162264565</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02197019228661354</v>
+        <v>0.02197015959703036</v>
       </c>
       <c r="F35" t="n">
         <v>0.02166312374261731</v>
@@ -1326,13 +1326,13 @@
         <v>0.04808253334865259</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04763490234477608</v>
+        <v>0.0472333431144891</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04808251513166076</v>
+        <v>0.04808253334865267</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04712420763210892</v>
+        <v>0.04712420622263394</v>
       </c>
       <c r="F36" t="n">
         <v>0.04732316887189943</v>
@@ -1351,13 +1351,13 @@
         <v>1.185298601378553</v>
       </c>
       <c r="C37" t="n">
-        <v>1.368176337642018</v>
+        <v>1.368176337636425</v>
       </c>
       <c r="D37" t="n">
-        <v>1.18529860137857</v>
+        <v>1.18529860137858</v>
       </c>
       <c r="E37" t="n">
-        <v>1.228078536592044</v>
+        <v>1.228078536592051</v>
       </c>
       <c r="F37" t="n">
         <v>1.32068985432862</v>
@@ -1376,7 +1376,7 @@
         <v>9.370461473423575e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>2.379260173324127e-07</v>
+        <v>2.379260157781005e-07</v>
       </c>
       <c r="D38" t="n">
         <v>9.370461473423575e-08</v>
@@ -1401,13 +1401,13 @@
         <v>0.5271541662286807</v>
       </c>
       <c r="C39" t="n">
-        <v>1.011152357806356</v>
+        <v>1.011152357800333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5271541662286887</v>
+        <v>0.5271541662286914</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6247922094181542</v>
+        <v>0.6247922094181579</v>
       </c>
       <c r="F39" t="n">
         <v>1.300889562145654</v>
@@ -1426,16 +1426,16 @@
         <v>0.03939623850921856</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04886316734240551</v>
+        <v>0.04886316734223709</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03939623850921892</v>
+        <v>0.03939623850921911</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04107959940653284</v>
+        <v>0.041079599406533</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05035939301053411</v>
+        <v>0.05035939301053412</v>
       </c>
       <c r="G40" t="n">
         <v>0.03182569524397058</v>
@@ -1451,16 +1451,16 @@
         <v>0.006374627942051736</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007317971588459898</v>
+        <v>0.007317971588417016</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006374627942051708</v>
+        <v>0.006374627942051764</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006509683833750474</v>
+        <v>0.006509683833750668</v>
       </c>
       <c r="F41" t="n">
-        <v>0.006603164349802432</v>
+        <v>0.006603164349802543</v>
       </c>
       <c r="G41" t="n">
         <v>0.0002605235664816796</v>
@@ -1476,16 +1476,16 @@
         <v>0.01439972777518039</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01512713632979618</v>
+        <v>0.01512713632969115</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01439972777518062</v>
+        <v>0.01439972777518106</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01451033699588461</v>
+        <v>0.01451033699588472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01366544008487663</v>
+        <v>0.01366544008487675</v>
       </c>
       <c r="G42" t="n">
         <v>0.002486748336684108</v>
@@ -1501,16 +1501,16 @@
         <v>0.02791601917479095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02830841502375597</v>
+        <v>0.02830841502364842</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02791601917479175</v>
+        <v>0.02791601917479242</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02860405930133003</v>
+        <v>0.02860405930132967</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02628993262459511</v>
+        <v>0.02628993262459475</v>
       </c>
       <c r="G43" t="n">
         <v>0.01211326768516893</v>
@@ -1577,13 +1577,13 @@
         <v>-0.3859836747996334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009431310575593876</v>
+        <v>0.0009431310575620522</v>
       </c>
       <c r="D2" t="n">
         <v>-0.4877337629142517</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3756255824003008</v>
+        <v>-0.3756255824003006</v>
       </c>
       <c r="F2" t="n">
         <v>0.001007513355546719</v>
@@ -1602,13 +1602,13 @@
         <v>-0.3859836747996334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009431310575593876</v>
+        <v>0.0009431310575620522</v>
       </c>
       <c r="D3" t="n">
         <v>-0.4877337629142517</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3756255824003008</v>
+        <v>-0.3756255824003006</v>
       </c>
       <c r="F3" t="n">
         <v>0.001007513355546719</v>
@@ -1677,13 +1677,13 @@
         <v>-0.3132503890762097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008990047468597551</v>
+        <v>0.008989287634547871</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3757853104097559</v>
+        <v>-0.3757855205539982</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.262312068911024</v>
+        <v>-0.2623121091909425</v>
       </c>
       <c r="F6" t="n">
         <v>0.009803808002732284</v>
@@ -1702,13 +1702,13 @@
         <v>-0.3092146240664356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01162184057491089</v>
+        <v>0.011621840574912</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3699258997218902</v>
+        <v>-0.3699261026882373</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25009954978372</v>
+        <v>-0.2500995900889664</v>
       </c>
       <c r="F7" t="n">
         <v>0.01402890999701811</v>
@@ -1727,13 +1727,13 @@
         <v>0.004035765009774095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00263179310631334</v>
+        <v>0.00263255294036413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005859410687865774</v>
+        <v>0.00585941786576083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01221251912730403</v>
+        <v>0.01221251910197607</v>
       </c>
       <c r="F8" t="n">
         <v>0.004225101994285829</v>
@@ -1752,13 +1752,13 @@
         <v>1.305166281174011</v>
       </c>
       <c r="C9" t="n">
-        <v>22.64523497246063</v>
+        <v>22.65177295623042</v>
       </c>
       <c r="D9" t="n">
-        <v>1.583941727862491</v>
+        <v>1.583942799164668</v>
       </c>
       <c r="E9" t="n">
-        <v>4.883063219372096</v>
+        <v>4.883062422306164</v>
       </c>
       <c r="F9" t="n">
         <v>30.11710813729568</v>
@@ -1777,7 +1777,7 @@
         <v>-0.2723593198701085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006638466045659763</v>
+        <v>0.01115537610804984</v>
       </c>
       <c r="D10" t="n">
         <v>-0.3179479238819879</v>
@@ -1802,13 +1802,13 @@
         <v>-0.2736103869260537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00632632056954785</v>
+        <v>0.0111710730088368</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3196687509796339</v>
+        <v>-0.3196687509796336</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2428206524143142</v>
+        <v>-0.2428206524143139</v>
       </c>
       <c r="F11" t="n">
         <v>0.008276284229812303</v>
@@ -1827,13 +1827,13 @@
         <v>-0.001251067055945132</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0003121454761119136</v>
+        <v>1.569690078695452e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001720827097646038</v>
+        <v>-0.001720827097645705</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002437690462818276</v>
+        <v>-0.002437690462818054</v>
       </c>
       <c r="F12" t="n">
         <v>-0.0006488438863905266</v>
@@ -1852,13 +1852,13 @@
         <v>-0.4572439920869112</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.934076177145462</v>
+        <v>0.1405138143358082</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5383157072352286</v>
+        <v>-0.538315707235125</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.003905738074928</v>
+        <v>-1.003905738074838</v>
       </c>
       <c r="F13" t="n">
         <v>-7.839797043863024</v>
@@ -1877,10 +1877,10 @@
         <v>-0.1072435678451346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0009673980540614302</v>
+        <v>0.0009673980540618743</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1134414876555001</v>
+        <v>-0.1134414876555002</v>
       </c>
       <c r="E14" t="n">
         <v>-0.1045787249444159</v>
@@ -1902,10 +1902,10 @@
         <v>-0.1072435678451346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009673980540614302</v>
+        <v>0.0009673980540618743</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1134414876555001</v>
+        <v>-0.1134414876555002</v>
       </c>
       <c r="E15" t="n">
         <v>-0.1045787249444159</v>
@@ -1977,13 +1977,13 @@
         <v>-0.09433112948383782</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008965656747822903</v>
+        <v>0.007216230209400099</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09908145249304477</v>
+        <v>-0.09908152482660715</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06802961718317935</v>
+        <v>-0.06802962583854666</v>
       </c>
       <c r="F18" t="n">
         <v>0.008314250736604745</v>
@@ -2002,13 +2002,13 @@
         <v>-0.09448383955050077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0103205051736881</v>
+        <v>0.02064789056621508</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0992500896839158</v>
+        <v>-0.09925015482786484</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06539386294011407</v>
+        <v>-0.06539387139775177</v>
       </c>
       <c r="F19" t="n">
         <v>0.01037076184482544</v>
@@ -2027,13 +2027,13 @@
         <v>-0.0001527100666629533</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001354848425865196</v>
+        <v>0.01343166035681498</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0001686371908710266</v>
+        <v>-0.0001686300012576913</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00263575424306528</v>
+        <v>0.002635754440794891</v>
       </c>
       <c r="F20" t="n">
         <v>0.002056511108220693</v>
@@ -2052,13 +2052,13 @@
         <v>-0.1616255937411721</v>
       </c>
       <c r="C21" t="n">
-        <v>13.12773360474013</v>
+        <v>65.05100515590881</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1699113737912878</v>
+        <v>-0.1699040183364509</v>
       </c>
       <c r="E21" t="n">
-        <v>4.030583489889613</v>
+        <v>4.030583270966135</v>
       </c>
       <c r="F21" t="n">
         <v>19.82989426419818</v>
@@ -2077,13 +2077,13 @@
         <v>-0.09976870118461167</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003126103742472131</v>
+        <v>0.00312610374247857</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1051035499925665</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.08933857319637317</v>
+        <v>-0.08933857319637339</v>
       </c>
       <c r="F22" t="n">
         <v>0.004162719565867556</v>
@@ -2102,16 +2102,16 @@
         <v>-0.09980637069539167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003001762405776098</v>
+        <v>0.004942606549540596</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1051453951261204</v>
+        <v>-0.1051453951261206</v>
       </c>
       <c r="E23" t="n">
         <v>-0.09015053672519768</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003611685724917324</v>
+        <v>0.003611685724917102</v>
       </c>
       <c r="G23" t="n">
         <v>0.196191055730033</v>
@@ -2127,16 +2127,16 @@
         <v>-3.766951077999181e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0001243413366960322</v>
+        <v>0.001816502807062026</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.184513355391661e-05</v>
+        <v>-4.184513355416641e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0008119635288245108</v>
+        <v>-0.0008119635288242888</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0005510338409502324</v>
+        <v>-0.0005510338409504545</v>
       </c>
       <c r="G24" t="n">
         <v>0.006399828416082443</v>
@@ -2152,16 +2152,16 @@
         <v>-0.03774259149744948</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.142277765114593</v>
+        <v>36.75192004168056</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.03979740007037302</v>
+        <v>-0.0397974000706105</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9006752020784825</v>
+        <v>-0.9006752020782363</v>
       </c>
       <c r="F25" t="n">
-        <v>-15.25697092492305</v>
+        <v>-15.25697092493014</v>
       </c>
       <c r="G25" t="n">
         <v>3.262038828563557</v>
